--- a/biology/Botanique/Genista_sagittalis/Genista_sagittalis.xlsx
+++ b/biology/Botanique/Genista_sagittalis/Genista_sagittalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genista sagittalis, Chamaespartium sagittale
 Le genêt ailé, Genista sagittalis, aussi appelé genêt sagitté, genêt à tiges ailées ou genistrelle, est une espèce de sous-arbrisseaux vivace de la famille des Fabaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante (10 à 30 cm de haut), prostrée, en coussinet, aux tiges érigées avec 3 larges ailes qui sont comprimées aux nœuds. Sur ces derniers s'attachent de petites feuilles ovales. Les fleurs sont jaunes, en grappes terminales.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat et aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genêt se rencontre dans les prairies, pelouses, rocailles ou talus jusqu'à 2 000 m d'altitude. La floraison a lieu de mai à juillet suivant la localisation. L'aire de répartition couvre pratiquement toute l'Europe tempérée, de la France au sud du Danemark, de l'Allemagne et de la Pologne.
 </t>
